--- a/data/steel/steel_simplified_factory-ccs.xlsx
+++ b/data/steel/steel_simplified_factory-ccs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1FA3C-F87D-FB45-8F2E-8960BD26B2FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16515" activeTab="1"/>
+    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="65">
   <si>
     <t>Inflow</t>
   </si>
@@ -219,12 +220,15 @@
   </si>
   <si>
     <t>secondary biofuel</t>
+  </si>
+  <si>
+    <t>biofuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -322,7 +326,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,21 +637,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -664,7 +668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -678,7 +682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -692,7 +696,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -706,7 +710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -720,7 +724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -734,7 +738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -748,7 +752,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -762,7 +766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -776,7 +780,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -790,7 +794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -810,30 +814,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -871,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -897,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -923,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -949,7 +953,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -975,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1001,7 +1005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1057,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1105,7 +1109,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1183,12 +1187,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
@@ -1209,7 +1213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -1287,7 +1291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1316,7 +1320,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -1342,7 +1346,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -1469,6 +1473,136 @@
         <v>39</v>
       </c>
       <c r="I24" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1478,21 +1612,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.875" style="2"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1503,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1648,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1525,7 +1659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1536,12 +1670,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1551,16 +1685,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1582,7 +1716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -1593,7 +1727,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>

--- a/data/steel/steel_simplified_factory-ccs.xlsx
+++ b/data/steel/steel_simplified_factory-ccs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B1FA3C-F87D-FB45-8F2E-8960BD26B2FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4B37A-A11B-B349-AF1D-ADDF95242B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="65">
   <si>
     <t>Inflow</t>
   </si>
@@ -815,10 +815,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1513,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="F26" t="s">
         <v>33</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
         <v>7</v>
@@ -1551,58 +1551,6 @@
         <v>39</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/data/steel/steel_simplified_factory-ccs.xlsx
+++ b/data/steel/steel_simplified_factory-ccs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tanzer/GitHub/BlackBlox/data/steel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\setanzer\GitHub\BlackBlox\data\steel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5F4B37A-A11B-B349-AF1D-ADDF95242B9D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="1260" windowWidth="26520" windowHeight="16515" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="chains" sheetId="9" r:id="rId1"/>
@@ -228,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -326,7 +325,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -637,21 +636,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -668,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -682,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -696,7 +695,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>36</v>
       </c>
@@ -710,7 +709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -724,7 +723,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -738,7 +737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -752,7 +751,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -766,7 +765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -780,7 +779,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -794,7 +793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -814,30 +813,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>5</v>
       </c>
@@ -875,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
@@ -901,7 +900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -927,7 +926,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -953,7 +952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>36</v>
       </c>
@@ -979,7 +978,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>36</v>
       </c>
@@ -1031,12 +1030,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1057,7 +1056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -1109,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>21</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>29</v>
       </c>
@@ -1161,7 +1160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>36</v>
       </c>
@@ -1187,7 +1186,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>8</v>
       </c>
@@ -1213,7 +1212,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>29</v>
       </c>
@@ -1239,7 +1238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -1291,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1319,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>60</v>
       </c>
@@ -1346,7 +1345,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>60</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>8</v>
       </c>
@@ -1398,7 +1397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>8</v>
       </c>
@@ -1424,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>24</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>36</v>
       </c>
@@ -1560,21 +1559,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="18.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="18.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1596,7 +1595,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1607,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
@@ -1618,12 +1617,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
@@ -1633,16 +1632,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1664,7 +1663,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -1675,7 +1674,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
